--- a/tableClient/question5.xlsx
+++ b/tableClient/question5.xlsx
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -6202,7 +6202,7 @@
         <v>840</v>
       </c>
       <c r="B533" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="str">
         <v>0</v>
